--- a/results/rnd_val_diff_features.xlsx
+++ b/results/rnd_val_diff_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtros\CS\cours\Cours_de_2A\electifML\geoproject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDB0C92-AEE4-4D07-900C-E99BD1291D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437B9E09-D9EE-446F-A819-0A84BED92960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9EDB70AE-230F-488B-9B1C-6D7CB92E5266}"/>
   </bookViews>
@@ -212,7 +212,7 @@
     <t>val_score 20</t>
   </si>
   <si>
-    <t>0.49.46</t>
+    <t>test_score</t>
   </si>
 </sst>
 </file>
@@ -584,19 +584,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCB2216-2006-4FBD-B52D-BBD882F39447}">
-  <dimension ref="A2:BF8"/>
+  <dimension ref="A2:BG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.90625" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -604,408 +606,417 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>55</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>56</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>22</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>23</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>24</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>25</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>26</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>35</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>36</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>37</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>38</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>41</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>42</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>43</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>44</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>45</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>46</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>6</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>8</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>9</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>10</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>11</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>12</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>13</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>14</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>15</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>16</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>17</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>18</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.99739999999999995</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.29580000000000001</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.01</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0.249</v>
       </c>
       <c r="C4">
+        <v>0.85</v>
+      </c>
+      <c r="D4">
         <v>0.9577</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.47</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0.26300000000000001</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.998</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.32</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.316</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0.30464000000000002</v>
       </c>
       <c r="C6">
+        <v>0.879</v>
+      </c>
+      <c r="D6">
         <v>0.99990000000000001</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.219</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.21</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.20100000000000001</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.316</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.45</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>0.99998943917430605</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.11600000000000001</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.182</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.186</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.99999219659371796</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5.5E-2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>4.7E-2</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.05</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>2E-3</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="V8">
-        <v>2E-3</v>
       </c>
       <c r="W8">
         <v>2E-3</v>
       </c>
       <c r="X8">
+        <v>2E-3</v>
+      </c>
+      <c r="Y8">
         <v>0.02</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>1.4E-2</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>1E-3</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>2.3E-3</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>3.9E-2</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>0.01</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>4.4900000000000002E-2</v>
-      </c>
-      <c r="AM8">
-        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AN8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AO8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AP8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>0.01</v>
       </c>
     </row>
